--- a/documentatie/vergadering/Agenda/agenda_03-10-2017.xlsx
+++ b/documentatie/vergadering/Agenda/agenda_03-10-2017.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>wie</t>
   </si>
@@ -983,8 +983,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1138,9 @@
       <c r="C11" s="35">
         <v>15</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="44" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="37">
         <v>4</v>
       </c>
@@ -1154,7 +1156,9 @@
       <c r="C12" s="35">
         <v>5</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="44" t="s">
+        <v>8</v>
+      </c>
       <c r="E12" s="37">
         <v>5</v>
       </c>
@@ -1170,7 +1174,9 @@
       <c r="C13" s="35">
         <v>5</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="44" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="37">
         <v>6</v>
       </c>
@@ -1186,7 +1192,9 @@
       <c r="C14" s="35">
         <v>5</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="44" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="37">
         <v>7</v>
       </c>
@@ -1528,6 +1536,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1576,12 +1590,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1592,6 +1600,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1606,20 +1628,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
